--- a/input/room_list.xlsx
+++ b/input/room_list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>S6</t>
+  </si>
+  <si>
+    <t>AVL</t>
+  </si>
+  <si>
+    <t>RES</t>
   </si>
 </sst>
 </file>
@@ -146,9 +152,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.57"/>
+    <col customWidth="1" min="1" max="1" width="6.71"/>
     <col customWidth="1" min="2" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="3" width="9.57"/>
+    <col customWidth="1" min="3" max="3" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -415,6 +421,28 @@
         <v>32.0</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
